--- a/dup/dup_Tempat_Ibadah.xlsx
+++ b/dup/dup_Tempat_Ibadah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>-7.884542</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.884542</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.334126</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.884542</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.884542</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.334126</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushalla+Nur+Jannah/@-7.8800106,110.2488454,13z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Bantul!3m6!1s0x2e7a55fed9ddc491:0xbf6873c0fa2acf82!8m2!3d-7.8845421!4d110.334126!15sChRUZW1wYXQgSWJhZGFoIEJhbnR1bJIBBm1vc3F1ZeABAA!16s%2Fg%2F1pzygy2yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,22 +567,21 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.79558</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.79558</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.36949</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/batak+kalinongko+kerembangan/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a597e3247003f:0x7e7eeb88308e63b2!8m2!3d-7.7955798!4d110.3694896!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YZIBBmNodXJjaOABAA!16s%2Fg%2F11l2v0_2yf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -605,22 +597,21 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.802969</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.802969</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.372861</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusuf,+Bintaran/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5783714d9e9d:0xf885483a137c0c45!8m2!3d-7.8029691!4d110.3728607!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeGEyVTJTbTkzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hc25hc6n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusuf,+Bintaran/@-7.8110042,110.3344728,14z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kota+Yogyakarta!3m6!1s0x2e7a5783714d9e9d:0xf885483a137c0c45!8m2!3d-7.8029691!4d110.3728607!15sCh1UZW1wYXQgSWJhZGFoIEtvdGEgWW9neWFrYXJ0YVofIh10ZW1wYXQgaWJhZGFoIGtvdGEgeW9neWFrYXJ0YZIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeGEyVTJTbTkzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1hc25hc6n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -643,25 +634,24 @@
           <t>(0274) 773465</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.856973</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.856973</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.15877</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Kristen+Jawa+(GKJ)+Wates/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb231cf69b49:0x96430a1bfae41806!8m2!3d-7.856973!4d110.15877!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQY2hyaXN0aWFuX2NodXJjaOABAA!16s%2Fg%2F1pzq8cchh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -680,25 +670,24 @@
           <t>(0274) 773465</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>-7.888217</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.888217</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.071338</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tempat+Ibadah/@-7.8882169,109.9271419,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae5c33b4d57e5:0xfc0d91b076232923!8m2!3d-7.8882169!4d110.0713375!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGY2h1cmNo4AEA!16s%2Fg%2F11vkcdyfk5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -713,25 +702,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.842422</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.842422</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.167905</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Agung+Pengasih/@-7.723752,110.0752294,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae130ed6ed9:0x976964a6b7a22f07!8m2!3d-7.8424216!4d110.1679051!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktkeloyYmtKbkVBReABAPoBBAgAEC4!16s%2Fg%2F11bzq32w7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -746,25 +734,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.858997</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.858997</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.165148</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MASJID+BANGUN+UMMAH/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1c3ad6f429:0xbe80faa54fab5f8!8m2!3d-7.8589968!4d110.1651478!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldkRGRwY1dsM1JSQULgAQD6AQQIcRAl!16s%2Fg%2F11js5fyvzz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -787,25 +774,24 @@
           <t>0852-1144-2024</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.759234</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.759234</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.374572</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Pogung+Raya+(MPR)/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59272f13bb99:0x97b3aaa1aac2cc60!8m2!3d-7.7592341!4d110.3745719!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTU5qaFlZbk5uUlJBQuABAPoBBAhZEDc!16s%2Fg%2F11tw_ndv3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Pogung+Raya+(MPR)/@-7.7577375,110.299402,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59272f13bb99:0x97b3aaa1aac2cc60!8m2!3d-7.7592341!4d110.3745719!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTU5qaFlZbk5uUlJBQuABAPoBBAhZEDc!16s%2Fg%2F11tw_ndv3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -832,25 +818,24 @@
           <t>0852-1144-2024</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-7.718218</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.718218</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.336304</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus,+Warak/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ab84dd6d45:0xb302677de8308218!8m2!3d-7.7182178!4d110.3363043!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaVgzQnBUalYzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11c58p1m9c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus,+Warak/@-7.7182178,110.2642065,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a58ab84dd6d45:0xb302677de8308218!8m2!3d-7.7182178!4d110.3363043!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBD2NhdGhvbGljX2NodXJjaJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaVgzQnBUalYzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11c58p1m9c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -877,25 +862,24 @@
           <t>0822-1880-4845</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>-7.720195</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.720195</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.361733</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GII+Cornerstone+Jogja/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59cccfaad7e9:0x894ce4dc14807c8d!8m2!3d-7.7201953!4d110.3617326!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGFuWmhjVmxuRUFF4AEA-gEECAAQNw!16s%2Fg%2F11h9rw94w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GII+Cornerstone+Jogja/@-7.7016206,110.2651254,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59cccfaad7e9:0x894ce4dc14807c8d!8m2!3d-7.7201953!4d110.3617326!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBmNodXJjaJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONGFuWmhjVmxuRUFF4AEA-gEECAAQNw!16s%2Fg%2F11h9rw94w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -922,25 +906,24 @@
           <t>0822-1880-4845</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.9</v>
+        <v>-7.762561</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.762561</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.389738</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+%60Ashri+Deresan/@-7.7625608,110.3176397,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59af8c55209f:0x60350dfa8a76e15f!8m2!3d-7.7625608!4d110.3897375!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUU1uVkVjMkZSRUFF4AEA-gEECAAQSQ!16s%2Fg%2F119vdkk9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+%60Ashri+Deresan/@-7.7625608,110.3176397,13z/data=!4m11!1m3!2m2!1sTempat+Ibadah+Sleman!6e1!3m6!1s0x2e7a59af8c55209f:0x60350dfa8a76e15f!8m2!3d-7.7625608!4d110.3897375!15sChRUZW1wYXQgSWJhZGFoIFNsZW1hbloWIhR0ZW1wYXQgaWJhZGFoIHNsZW1hbpIBBm1vc3F1ZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUU1uVkVjMkZSRUFF4AEA-gEECAAQSQ!16s%2Fg%2F119vdkk9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
